--- a/Agenda.xlsx
+++ b/Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ffcb4d5f4c9f389f/Natuurkunde project/Ion-traps-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FFB7BC6-2DCF-4EFB-BB51-3781E2C38806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{1FFB7BC6-2DCF-4EFB-BB51-3781E2C38806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B158C332-B588-45AA-91EB-241EDBE89D08}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{67E8B7AD-6E5C-40FE-BB6D-7E45621E3F92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="12">
   <si>
     <t>9.00-11.00</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Week 3</t>
   </si>
   <si>
-    <t>Emils</t>
+    <t>Wanneer we niet kunnen</t>
   </si>
 </sst>
 </file>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401DC458-F372-4485-9F16-B8C303F58267}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,25 +504,16 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -553,29 +544,25 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
